--- a/Test_Files/GP 24 input + GP10.xlsx
+++ b/Test_Files/GP 24 input + GP10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo_m\Documents\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CellLineIDAutomation\Test_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14362171-F622-44A8-8341-98AE3328ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30532D3-45CB-4EFD-BE08-3F763CAD2F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15590" yWindow="2180" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13030" yWindow="4480" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="68">
   <si>
     <t>4-93-24143$PDX12_E12.fsa</t>
   </si>
@@ -184,6 +184,48 @@
   </si>
   <si>
     <t>3-96-RPMI</t>
+  </si>
+  <si>
+    <t>7-90-24862$M207nRFP_B12.fsa</t>
+  </si>
+  <si>
+    <t>M207nRFP</t>
+  </si>
+  <si>
+    <t>7-91-24862$M207TRPKO_C12.fsa</t>
+  </si>
+  <si>
+    <t>M207TRPKO</t>
+  </si>
+  <si>
+    <t>7-92-24862$M230nRFP_D12.fsa</t>
+  </si>
+  <si>
+    <t>M230nRFP</t>
+  </si>
+  <si>
+    <t>7-93-24862$M249nRFP_E12.fsa</t>
+  </si>
+  <si>
+    <t>M249nRFP</t>
+  </si>
+  <si>
+    <t>7-94-24862$M249TYRPKO_F12.fsa</t>
+  </si>
+  <si>
+    <t>M249TYRPKO</t>
+  </si>
+  <si>
+    <t>7-95-24862$M285nRFP_G12.fsa</t>
+  </si>
+  <si>
+    <t>M285nRFP</t>
+  </si>
+  <si>
+    <t>7-96-24862$M285TYRPKO_H12.fsa</t>
+  </si>
+  <si>
+    <t>M285TYRPKO</t>
   </si>
 </sst>
 </file>
@@ -199,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +288,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3553,6 +3602,1888 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3">
+        <v>11</v>
+      </c>
+      <c r="G119" s="3">
+        <v>14</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3">
+        <v>10</v>
+      </c>
+      <c r="G120" s="3">
+        <v>14</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3">
+        <v>12</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="3">
+        <v>14</v>
+      </c>
+      <c r="G122" s="3">
+        <v>16</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="3">
+        <v>7</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="3">
+        <v>11</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3">
+        <v>10</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="3">
+        <v>30</v>
+      </c>
+      <c r="G127" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3">
+        <v>8</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3">
+        <v>14</v>
+      </c>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="3">
+        <v>10</v>
+      </c>
+      <c r="G130" s="3">
+        <v>14</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3">
+        <v>11</v>
+      </c>
+      <c r="G131" s="3">
+        <v>12</v>
+      </c>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="3">
+        <v>14</v>
+      </c>
+      <c r="G132" s="3">
+        <v>16</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="3">
+        <v>7</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="3">
+        <v>11</v>
+      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3">
+        <v>10</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="3">
+        <v>30</v>
+      </c>
+      <c r="G137" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="3">
+        <v>11</v>
+      </c>
+      <c r="G138" s="3">
+        <v>12</v>
+      </c>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3">
+        <v>13</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3">
+        <v>7</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="3">
+        <v>11</v>
+      </c>
+      <c r="G141" s="3">
+        <v>12</v>
+      </c>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="3">
+        <v>17</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="3">
+        <v>9</v>
+      </c>
+      <c r="G145" s="3">
+        <v>11</v>
+      </c>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3">
+        <v>11</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="3">
+        <v>28</v>
+      </c>
+      <c r="G147" s="3">
+        <v>29</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="3">
+        <v>11</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="3">
+        <v>8</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3">
+        <v>11</v>
+      </c>
+      <c r="G150" s="3">
+        <v>12</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="3">
+        <v>12</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="3">
+        <v>17</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="3">
+        <v>7</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="3">
+        <v>8</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="3">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="3">
+        <v>29</v>
+      </c>
+      <c r="G157" s="3">
+        <v>30</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="3">
+        <v>11</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="3">
+        <v>8</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="3">
+        <v>11</v>
+      </c>
+      <c r="G160" s="3">
+        <v>12</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="3">
+        <v>12</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="3">
+        <v>17</v>
+      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="3">
+        <v>7</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" s="3">
+        <v>8</v>
+      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3">
+        <v>12</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="3">
+        <v>29</v>
+      </c>
+      <c r="G167" s="3">
+        <v>30</v>
+      </c>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3">
+        <v>11</v>
+      </c>
+      <c r="G168" s="3">
+        <v>12</v>
+      </c>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="3">
+        <v>11</v>
+      </c>
+      <c r="G169" s="3">
+        <v>12</v>
+      </c>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="3">
+        <v>12</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="3">
+        <v>14</v>
+      </c>
+      <c r="G172" s="3">
+        <v>17</v>
+      </c>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="3">
+        <v>6</v>
+      </c>
+      <c r="G173" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="3">
+        <v>8</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="3">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3">
+        <v>12</v>
+      </c>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="3">
+        <v>29</v>
+      </c>
+      <c r="G177" s="3">
+        <v>30</v>
+      </c>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="3">
+        <v>11</v>
+      </c>
+      <c r="G178" s="3">
+        <v>12</v>
+      </c>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="3">
+        <v>11</v>
+      </c>
+      <c r="G179" s="3">
+        <v>12</v>
+      </c>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="3">
+        <v>10</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3">
+        <v>12</v>
+      </c>
+      <c r="G181" s="3"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" s="3">
+        <v>14</v>
+      </c>
+      <c r="G182" s="3">
+        <v>17</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="3">
+        <v>6</v>
+      </c>
+      <c r="G183" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="3">
+        <v>8</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="3">
+        <v>10</v>
+      </c>
+      <c r="G186" s="3">
+        <v>12</v>
+      </c>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="3">
+        <v>29</v>
+      </c>
+      <c r="G187" s="3">
+        <v>30</v>
+      </c>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="4">
         <v>10</v>
       </c>
     </row>
